--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43498,6 +43498,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,43 @@
         <v>19000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43792,6 +43792,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43827,6 +43827,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43862,6 +43862,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43899,6 +43899,76 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43969,6 +43969,76 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>310000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44039,6 +44039,43 @@
         <v>310000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44076,6 +44076,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>319400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,41 @@
         <v>319400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44146,6 +44146,41 @@
         <v>174000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44181,6 +44181,76 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>125900</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44251,6 +44251,43 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44288,6 +44288,41 @@
         </is>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83418,6 +83418,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>298500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83453,6 +83453,41 @@
         <v>298500</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83488,6 +83488,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>98800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83523,6 +83523,41 @@
         <v>98800</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83558,6 +83558,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2361" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83595,6 +83595,43 @@
         </is>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2362" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83632,6 +83632,41 @@
         </is>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83667,6 +83667,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83702,6 +83702,41 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83737,6 +83737,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83772,6 +83772,41 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83807,6 +83807,43 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I2368" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83844,6 +83844,41 @@
         </is>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83879,6 +83879,43 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2370" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8923.xlsx
+++ b/data/8923.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83916,6 +83916,41 @@
         </is>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>8923</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>JIANKUN</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
